--- a/4_DSA/Sujeet_DSA_sheet.xlsx
+++ b/4_DSA/Sujeet_DSA_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_SoftwareEngineering\SoftwareEngineeringBox\4_DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B475D-C755-49A8-8B37-BEB8BD1DBDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D5BEE-5DBB-4BED-9B26-CA3F765F262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL_Data " sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="355">
   <si>
     <t>Hard</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Tips</t>
-  </si>
-  <si>
     <t>https://www.enjoyalgorithms.com/blog/trapping-rain-water</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Initialization</t>
   </si>
   <si>
-    <t>Create a linked list from an array of integers</t>
-  </si>
-  <si>
     <t>Traversal</t>
   </si>
   <si>
@@ -206,12 +200,6 @@
     <t>Find a node by its value</t>
   </si>
   <si>
-    <t>Find the middle element of the linked list</t>
-  </si>
-  <si>
-    <t>Check if the linked list contains a cycle</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
@@ -221,67 +209,25 @@
     <t>Reverse</t>
   </si>
   <si>
-    <t>Reverse the linked list</t>
-  </si>
-  <si>
     <t>Sorting</t>
   </si>
   <si>
-    <t>Sort the linked list</t>
-  </si>
-  <si>
     <t>Merging</t>
   </si>
   <si>
-    <t>Merge two sorted linked lists</t>
-  </si>
-  <si>
     <t>Splitting</t>
   </si>
   <si>
     <t>Split the linked list into two halves</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Find the intersection point of two linked lists</t>
-  </si>
-  <si>
-    <t>Detect and remove a loop in the linked list</t>
-  </si>
-  <si>
-    <t>Implement a doubly linked list</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sl </t>
   </si>
   <si>
     <t>Operation</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Node class and LinkedList Class </t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. First Traverse then add </t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Tried</t>
-  </si>
-  <si>
-    <t>Think 1. Index &lt; 1, index ==1 &amp;&amp; 1. traverse to the previous node of the position</t>
   </si>
   <si>
     <t>I am learning  Array data structure  and I need to do code practice step by step to learn the concept  on Array  data structure covering all aspect and scenario on Array , 
@@ -351,11 +297,6 @@
     <t>Understand how stacks are used in function calls and recursion</t>
   </si>
   <si>
-    <t>1.  Always think of two condition 
- --  No node before 
- --  Already  many node exist</t>
-  </si>
-  <si>
     <t>Leetcode</t>
   </si>
   <si>
@@ -1073,13 +1014,115 @@
   </si>
   <si>
     <t>Organizing Data&lt;br&gt;- Preparing Data for faster searches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interview </t>
+  </si>
+  <si>
+    <t>Sort the linked list using Merge Sort</t>
+  </si>
+  <si>
+    <t>Splitting a linked list into two lists, one containing odd and the other containing even elements.</t>
+  </si>
+  <si>
+    <t>Delete the N-th node from the end in a single pass.</t>
+  </si>
+  <si>
+    <t>Find the middle element of a linked list, preferably in one pass.</t>
+  </si>
+  <si>
+    <t>Eliminate all duplicate nodes from an unsorted linked list.</t>
+  </si>
+  <si>
+    <t>Rotate the list to the right by k places, where k is a non-negative number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterative method to reverse a linked list. - Interview </t>
+  </si>
+  <si>
+    <t>Recursive method to reverse a linked list. -Interview</t>
+  </si>
+  <si>
+    <t>Merge two sorted linked lists -Interview</t>
+  </si>
+  <si>
+    <t>Create Node class to represent Node in LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create </t>
+  </si>
+  <si>
+    <t>Create a linked list with 10 nodes</t>
+  </si>
+  <si>
+    <t>Detect and remove a loop in the linked list (Cycle Detection).</t>
+  </si>
+  <si>
+    <t>Find the intersection point of two linked lists.</t>
+  </si>
+  <si>
+    <t>Add the two numbers represented by two linked lists and return the sum as a linked list.</t>
+  </si>
+  <si>
+    <t>Partition a Linked List Around a Value.</t>
+  </si>
+  <si>
+    <t>Determining the length of the linked list (Finding the Length).</t>
+  </si>
+  <si>
+    <t>Implement a doubly linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview </t>
+  </si>
+  <si>
+    <t>Valid Parentheses (LeetCode #20)</t>
+  </si>
+  <si>
+    <t>Min Stack (LeetCode #155)</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses (LeetCode #32)</t>
+  </si>
+  <si>
+    <t>Simplify Path (LeetCode #71)</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal (LeetCode #94)</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues (LeetCode #225)</t>
+  </si>
+  <si>
+    <t>Daily Temperatures (LeetCode #739)</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram (LeetCode #84)</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation (LeetCode #150)</t>
+  </si>
+  <si>
+    <t>Next Greater Element I (LeetCode #496)</t>
+  </si>
+  <si>
+    <t>Find the middle element of the linked list -Tortoise and the Hare</t>
+  </si>
+  <si>
+    <t>Check if the linked list contains a cycle -Tortoise and the Hare</t>
+  </si>
+  <si>
+    <t>depending on whether you wish to favor  second middle node in even-length lists.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,14 +1163,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -1142,33 +1177,48 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1224,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1351,12 +1401,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1372,38 +1435,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1434,122 +1476,147 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2567,12 +2634,12 @@
   <sheetData>
     <row r="3" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2595,15 +2662,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2618,697 +2685,692 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A338DD5B-6BE7-4E0C-B006-614BB40A44D9}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="69" style="46" customWidth="1"/>
-    <col min="3" max="3" width="86.44140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="86.33203125" style="46" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="1" width="32.88671875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="69" style="47" customWidth="1"/>
+    <col min="3" max="3" width="86.44140625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A1" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="E7" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="E8" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C10" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="57" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C11" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B12" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="64" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="64" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="64" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="64" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="64" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="64" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="B18" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="C18" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="59"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C19" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="54" t="s">
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="54" t="s">
+      <c r="C20" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="C21" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="B22" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="C22" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C23" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:4" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B24" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C24" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="D24" s="62"/>
+    </row>
+    <row r="25" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B25" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C25" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="60"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B26" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="54" t="s">
+      <c r="C26" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="D26" s="62"/>
+    </row>
+    <row r="27" spans="1:4" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="B27" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C27" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="54" t="s">
+      <c r="D27" s="62"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="B30" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="C30" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="59"/>
+    </row>
+    <row r="31" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B31" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C31" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="D22" s="62"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="54" t="s">
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="B32" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="62"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="C32" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="B33" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="62"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="C33" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="B35" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="62"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="C35" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="59"/>
+    </row>
+    <row r="36" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B36" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C36" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="62"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B37" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C37" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="D27" s="62"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="60"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50" t="s">
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B38" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="61"/>
-    </row>
-    <row r="31" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="44" t="s">
+      <c r="C38" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="B39" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="62"/>
-    </row>
-    <row r="32" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="44" t="s">
+      <c r="C39" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="B40" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="62"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
+      <c r="C40" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="B41" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="D33" s="62"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="50" t="s">
+      <c r="C41" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+    </row>
+    <row r="43" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C35" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="61"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
+      <c r="B43" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="C43" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="59"/>
+    </row>
+    <row r="44" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="B44" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="D36" s="62"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="44" t="s">
+      <c r="C44" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="B45" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="62"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="44" t="s">
+      <c r="C45" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="B46" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="62"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="44" t="s">
+      <c r="C46" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="B47" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="62"/>
-    </row>
-    <row r="40" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="44" t="s">
+      <c r="C47" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="B48" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="62"/>
-    </row>
-    <row r="41" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44" t="s">
+      <c r="C48" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="B49" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="D41" s="62"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="50" t="s">
+      <c r="C49" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+    </row>
+    <row r="51" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="61"/>
-    </row>
-    <row r="44" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="44" t="s">
+      <c r="B51" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="C51" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="59"/>
+    </row>
+    <row r="52" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C52" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="D44" s="62"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="44" t="s">
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B53" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C53" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="D45" s="62"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="44" t="s">
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B54" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C54" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="62"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="44" t="s">
+      <c r="D54" s="62"/>
+    </row>
+    <row r="55" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B55" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C55" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="D47" s="62"/>
-    </row>
-    <row r="48" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="44" t="s">
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B56" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C56" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="D48" s="62"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="44" t="s">
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="C57" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="D49" s="62"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="50" t="s">
+      <c r="C58" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="61"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="B52" s="44" t="s">
+      <c r="B59" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C59" s="66" t="s">
         <v>307</v>
-      </c>
-      <c r="D52" s="62"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="62"/>
-    </row>
-    <row r="54" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="62"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="D55" s="62"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D56" s="62"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C57" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="D57" s="62"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="62"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>326</v>
       </c>
       <c r="D59" s="62"/>
     </row>
@@ -3339,203 +3401,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="F4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="E5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="F5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="26" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="E6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="26" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="D7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="F7" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="26" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="C8" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="E8" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="F8" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="26" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="C9" s="19" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="E9" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="F9" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="26" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="D10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3580,631 +3642,632 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7288A-8D28-425D-A8BF-0627191573E1}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="70.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="16"/>
-    <col min="7" max="7" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.33203125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="16.5546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="46.77734375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="B2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>1</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>2</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>3</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>4</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <v>5</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <v>6</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>7</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>8</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <v>9</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <v>13</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="34">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <v>10</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+      <c r="E21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <v>11</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="39">
-        <v>2</v>
-      </c>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="37">
-        <v>2</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="39">
-        <v>2</v>
-      </c>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="37">
-        <v>3</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="39">
-        <v>2</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
-        <v>4</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="39">
+      <c r="E22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
+        <v>12</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
-        <v>7</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
-        <v>8</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
-        <v>9</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
-        <v>10</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
-        <v>11</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="E23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="27">
+        <v>14</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
-        <v>12</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="43" t="s">
+      <c r="E26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
+        <v>15</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="32" t="s">
+      <c r="E29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="37">
-        <v>13</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="36" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <v>16</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="32" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
+        <v>17</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
-        <v>14</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="36" t="s">
+      <c r="D33" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
-        <v>15</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
-        <v>16</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="37">
-        <v>17</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="37">
+      <c r="E33" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
         <v>18</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
+      <c r="B37" s="42"/>
+      <c r="C37" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="27">
         <v>19</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="37">
+      <c r="B38" s="42"/>
+      <c r="C38" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="27">
         <v>20</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B39" s="43"/>
+      <c r="C39" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="9">
         <v>707</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4213,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF71080-DA2E-4080-BFC1-C78DED2E00AA}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4229,520 +4292,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+      <c r="D14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="E15" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="D23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>13</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>14</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>15</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>16</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>17</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>18</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>19</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>20</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>86</v>
+      <c r="D33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C36" s="37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C37" s="37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C38" s="37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C39" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C40" s="37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C41" s="37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C42" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C43" s="37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C44" s="37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="C45" s="37" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/4_DSA/Sujeet_DSA_sheet.xlsx
+++ b/4_DSA/Sujeet_DSA_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_SoftwareEngineering\SoftwareEngineeringBox\4_DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D5BEE-5DBB-4BED-9B26-CA3F765F262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7716B3-4620-4C30-8B99-343E583779DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="1152" windowWidth="21600" windowHeight="11232" tabRatio="850" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL_Data " sheetId="3" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Dynamic Programming" sheetId="18" r:id="rId13"/>
     <sheet name="Prompt " sheetId="7" r:id="rId14"/>
     <sheet name="BestSIte" sheetId="5" r:id="rId15"/>
+    <sheet name="|Algo|" sheetId="21" r:id="rId16"/>
+    <sheet name="Merge Sort" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="358">
   <si>
     <t>Hard</t>
   </si>
@@ -631,15 +633,6 @@
     <t>Common Applications</t>
   </si>
   <si>
-    <t>- QuickSort&lt;br&gt;- MergeSort</t>
-  </si>
-  <si>
-    <t>- Binary Search&lt;br&gt;- Depth-First Search (DFS)&lt;br&gt;- Breadth-First Search (BFS)</t>
-  </si>
-  <si>
-    <t>- Finding elements in sorted data&lt;br&gt;- Traversing trees and graphs</t>
-  </si>
-  <si>
     <t>Dynamic Programming</t>
   </si>
   <si>
@@ -760,25 +753,16 @@
     <t>Creational</t>
   </si>
   <si>
-    <t>- Singleton&lt;br&gt;- Factory Method&lt;br&gt;- Abstract Factory</t>
-  </si>
-  <si>
     <t>- Managing creation of objects&lt;br&gt;- Encapsulating object creation logic&lt;br&gt;- Providing interface for object creation</t>
   </si>
   <si>
     <t>Structural</t>
   </si>
   <si>
-    <t>- Adapter&lt;br&gt;- Decorator&lt;br&gt;- Facade</t>
-  </si>
-  <si>
     <t>- Facilitating communication between incompatible interfaces&lt;br&gt;- Adding responsibilities to objects dynamically&lt;br&gt;- Simplifying complex systems</t>
   </si>
   <si>
     <t>Behavioral</t>
-  </si>
-  <si>
-    <t>- Observer&lt;br&gt;- Strategy&lt;br&gt;- Command</t>
   </si>
   <si>
     <t>- Implementing distributed event handling systems&lt;br&gt;- Defining a family of algorithms&lt;br&gt;- Encapsulating request as an object</t>
@@ -1013,15 +997,9 @@
 Frequency counting</t>
   </si>
   <si>
-    <t>Organizing Data&lt;br&gt;- Preparing Data for faster searches</t>
-  </si>
-  <si>
     <t xml:space="preserve">interview </t>
   </si>
   <si>
-    <t>Sort the linked list using Merge Sort</t>
-  </si>
-  <si>
     <t>Splitting a linked list into two lists, one containing odd and the other containing even elements.</t>
   </si>
   <si>
@@ -1046,9 +1024,6 @@
     <t>Recursive method to reverse a linked list. -Interview</t>
   </si>
   <si>
-    <t>Merge two sorted linked lists -Interview</t>
-  </si>
-  <si>
     <t>Create Node class to represent Node in LinkedList</t>
   </si>
   <si>
@@ -1116,13 +1091,154 @@
   </si>
   <si>
     <t>depending on whether you wish to favor  second middle node in even-length lists.</t>
+  </si>
+  <si>
+    <t>Find Duplicate node -Tortoise and the Hare</t>
+  </si>
+  <si>
+    <t>Sort the linked list using Merge Sort
+Given the head of a singly linked list, sort the list using Merge Sort and return the sorted list's head -LeetCode 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeetCode problem 21. Merge Two Sorted Lists. - Interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuickSort
+MergeSort
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QuickSort might be preferred for arrays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- QuickSort divide-and-conquer approach, in-place sorting, and partitioning logic are valuable concepts.
+--QuickSort widely used in practice due to its in-place sorting capability and speed. Understanding QuickSort reinforces concepts like divide-and-conquer, recursion, and partitioning, which are applicable to many other algorithm problems.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>and MergeSort for linked lists,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-MergeSort guarantees a time complexity of O(n log n) in the worst case
+-It's particularly useful for sorting linked lists, where it can achieve O(1) space complexity
+-Learning MergeSort provides insight into divide-and-conquer strategies, recursion,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binary Search
+&lt;br&gt;- Depth-First Search (DFS)
+&lt;br&gt;- Breadth-First Search (BFS)</t>
+  </si>
+  <si>
+    <t>Depth-First Search (DFS) and Breadth-First Search (BFS) for Graphs and Trees:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Singleton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;br&gt;- Factory Method&lt;br&gt;- Abstract Factory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Observer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;br&gt;- Strategy&lt;br&gt;- Command</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;- Decorator&lt;br&gt;- Façade , Composite </t>
+    </r>
+  </si>
+  <si>
+    <t>Key Concepts: 
+Comparison-based vs. non-comparison-based sorting, 
+in-place vs. out-of-place sorting, 
+stable vs. unstable sorting.</t>
+  </si>
+  <si>
+    <t>For small subarrays, consider switching to Insertion Sort, which is faster for small datasets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1334,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
@@ -1419,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1617,6 +1740,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2681,12 +2810,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F3C859-5A6D-4948-9CDE-009411EA51F5}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482CE29-623E-4160-BA98-904832B8BF7E}">
+  <dimension ref="O3:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="107.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="15:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="O3" s="69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A338DD5B-6BE7-4E0C-B006-614BB40A44D9}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2711,7 +2885,7 @@
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="46" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2726,7 +2900,7 @@
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="57" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2737,11 +2911,11 @@
         <v>180</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="57" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2752,11 +2926,11 @@
         <v>182</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="57" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
@@ -2771,7 +2945,7 @@
       </c>
       <c r="D5" s="56"/>
       <c r="E5" s="57" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2786,7 +2960,7 @@
       </c>
       <c r="D6" s="56"/>
       <c r="E6" s="57" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
@@ -2794,7 +2968,7 @@
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="E7" s="57" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
@@ -2802,7 +2976,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="E8" s="57" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
@@ -2817,81 +2991,81 @@
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="57" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="57" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D15" s="62"/>
     </row>
@@ -2907,10 +3081,10 @@
     </row>
     <row r="18" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A18" s="58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>193</v>
@@ -2922,10 +3096,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" s="62"/>
     </row>
@@ -2934,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D20" s="62"/>
     </row>
@@ -2946,82 +3120,82 @@
         <v>5</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D25" s="62"/>
     </row>
     <row r="26" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D26" s="62"/>
     </row>
     <row r="27" spans="1:4" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D27" s="62"/>
     </row>
@@ -3037,10 +3211,10 @@
     </row>
     <row r="30" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>193</v>
@@ -3049,37 +3223,37 @@
     </row>
     <row r="31" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D32" s="62"/>
     </row>
     <row r="33" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D33" s="62"/>
     </row>
@@ -3090,10 +3264,10 @@
     </row>
     <row r="35" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="63" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C35" s="64" t="s">
         <v>193</v>
@@ -3102,73 +3276,73 @@
     </row>
     <row r="36" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="65" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D36" s="62"/>
     </row>
     <row r="37" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="65" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D37" s="62"/>
     </row>
     <row r="38" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="65" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D38" s="62"/>
     </row>
     <row r="39" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="65" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D39" s="62"/>
     </row>
     <row r="40" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="65" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D40" s="62"/>
     </row>
     <row r="41" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="65" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D41" s="62"/>
     </row>
@@ -3179,10 +3353,10 @@
     </row>
     <row r="43" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="63" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>193</v>
@@ -3191,73 +3365,73 @@
     </row>
     <row r="44" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="65" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="65" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D45" s="62"/>
     </row>
     <row r="46" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="65" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="65" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B47" s="65" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D47" s="62"/>
     </row>
     <row r="48" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="65" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D48" s="62"/>
     </row>
     <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="65" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D49" s="62"/>
     </row>
@@ -3268,10 +3442,10 @@
     </row>
     <row r="51" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="63" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>193</v>
@@ -3280,97 +3454,97 @@
     </row>
     <row r="52" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="65" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D52" s="62"/>
     </row>
     <row r="53" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="65" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D53" s="62"/>
     </row>
     <row r="54" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="65" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D54" s="62"/>
     </row>
     <row r="55" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="65" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D55" s="62"/>
     </row>
     <row r="56" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="65" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D56" s="62"/>
     </row>
     <row r="57" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="65" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D57" s="62"/>
     </row>
     <row r="58" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="65" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D58" s="62"/>
     </row>
     <row r="59" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="65" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D59" s="62"/>
     </row>
@@ -3642,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7288A-8D28-425D-A8BF-0627191573E1}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3694,7 +3868,7 @@
       <c r="A3" s="24"/>
       <c r="B3" s="42"/>
       <c r="C3" s="26" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>2</v>
@@ -3707,7 +3881,7 @@
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="67"/>
@@ -3720,7 +3894,7 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="26" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>2</v>
@@ -3954,7 +4128,7 @@
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="26" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>1</v>
@@ -3964,16 +4138,16 @@
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>12</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="30" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>1</v>
@@ -3984,174 +4158,178 @@
       <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="27">
+        <v>12</v>
+      </c>
       <c r="B24" s="42"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="C24" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="27">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="27">
         <v>14</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
       <c r="B27" s="42"/>
       <c r="C27" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+        <v>321</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="27"/>
-      <c r="B28" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="26"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="33" t="s">
+        <v>322</v>
+      </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="A29" s="27"/>
+      <c r="B29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
         <v>15</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E30" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="42" t="s">
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="27">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
         <v>16</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D31" s="26" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E32" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="42" t="s">
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
         <v>17</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" ht="36" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
       <c r="B34" s="42"/>
       <c r="C34" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
       <c r="B35" s="42"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
-        <v>18</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="31" t="s">
-        <v>325</v>
-      </c>
+      <c r="A37" s="27"/>
+      <c r="B37" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="42"/>
-      <c r="C38" s="31" t="s">
-        <v>324</v>
+      <c r="C38" s="68" t="s">
+        <v>317</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -4159,58 +4337,61 @@
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
-        <v>20</v>
-      </c>
-      <c r="B39" s="43"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="42"/>
       <c r="C39" s="31" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="27">
+        <v>20</v>
+      </c>
       <c r="B40" s="43"/>
-      <c r="C40" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="39"/>
+      <c r="C40" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="43"/>
       <c r="C41" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="43"/>
       <c r="C42" s="31" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="43"/>
       <c r="C43" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
+        <v>319</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="43"/>
       <c r="C44" s="31" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -4219,7 +4400,7 @@
       <c r="A45" s="40"/>
       <c r="B45" s="43"/>
       <c r="C45" s="31" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -4228,7 +4409,7 @@
       <c r="A46" s="40"/>
       <c r="B46" s="43"/>
       <c r="C46" s="31" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -4236,7 +4417,9 @@
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="43"/>
-      <c r="C47" s="26"/>
+      <c r="C47" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
     </row>
@@ -4261,11 +4444,18 @@
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="44" t="s">
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C55" s="9">
         <v>707</v>
       </c>
     </row>
@@ -4810,57 +5000,57 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C36" s="37" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C37" s="37" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C38" s="37" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C39" s="37" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C40" s="37" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C41" s="37" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C42" s="37" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C43" s="37" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C44" s="37" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C45" s="37" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
